--- a/src/log/log_201608040114_刘忠亚.xlsx
+++ b/src/log/log_201608040114_刘忠亚.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\TANWANLANYUE\src\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{34ADBFC7-666B-42F7-864D-683414D22302}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7E08E99B-7C30-4406-9F28-69498ADECB77}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>日期</t>
   </si>
@@ -258,6 +258,22 @@
   </si>
   <si>
     <t>1、创建实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月20日·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档详细设计书初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,6 +745,20 @@
       </c>
       <c r="D6" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
